--- a/biology/Microbiologie/Gélose_au_cétrimide/Gélose_au_cétrimide.xlsx
+++ b/biology/Microbiologie/Gélose_au_cétrimide/Gélose_au_cétrimide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Isolement de Pseudomonas aeruginosa
 </t>
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">pH = 7,1
 </t>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Rôle de quelques constituants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antiseptique cétrimide ainsi que l'antibiotique qui est l'acide nalidixique inhibent de très nombreuses bactéries.
 Stimulation de la production de pyocyanine (coloration bleue): chlorure de magnésium et sulfate de potassium.
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">24,2 g par litre. Dans certaines compositions le cétrimide est présent avant autoclavage. Dans d'autres il est ajouté avec l'acide nalidixique qui est parfois absent.
 </t>
@@ -613,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -631,7 +651,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose au cétrimide est un milieu permettant l'isolement sélectif de Pseudomonas aeruginosa dans des produits variés. Cependant, Serratia, Klebsiella et Acinetobacter peuvent y cultiver. Après ensemencement, le milieu est donc incubé à 41 °C pendant 24h avant d'être examiné, ce qui permet d'améliorer l'isolement sélectif de Pseudomonas aeruginosa.
 </t>
@@ -644,7 +666,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_au_c%C3%A9trimide</t>
+          <t>Gélose_au_cétrimide</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -662,7 +684,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'obtention de colonies présentant une pigmentation caractéristique bleue ou bleu-vert et une fluorescence sous ultraviolets à 254 nm oriente vers Pseudomonas aeruginosa.
 </t>
